--- a/data/statistical/filled_NaN_xlsx/内蒙古自治区_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/内蒙古自治区_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>41.8</v>
       </c>
       <c r="E2">
-        <v>869.9500005282462</v>
+        <v>869.9500007480383</v>
       </c>
       <c r="F2">
         <v>4859.88</v>
@@ -609,85 +609,85 @@
         <v>3.68</v>
       </c>
       <c r="H2">
-        <v>43.25135190900619</v>
+        <v>43.25135190890433</v>
       </c>
       <c r="I2">
-        <v>4.737378740828717</v>
+        <v>4.737378740886925</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-35.73467650637031</v>
       </c>
       <c r="K2">
-        <v>22.28988347423729</v>
+        <v>22.28988347644918</v>
       </c>
       <c r="L2">
-        <v>3.103411365613283</v>
+        <v>3.103411365515058</v>
       </c>
       <c r="M2">
-        <v>545.2382002621889</v>
+        <v>545.2382002603263</v>
       </c>
       <c r="N2">
-        <v>123.9473039228469</v>
+        <v>123.9473039261065</v>
       </c>
       <c r="O2">
-        <v>29.59237743448466</v>
+        <v>29.59237743634731</v>
       </c>
       <c r="P2">
-        <v>2754.410130016312</v>
+        <v>2497.082780649022</v>
       </c>
       <c r="Q2">
-        <v>88.00051470685867</v>
+        <v>88.0005147055781</v>
       </c>
       <c r="R2">
-        <v>21.57279669772834</v>
+        <v>21.57279668538831</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-165723.1864800453</v>
       </c>
       <c r="T2">
-        <v>146603.0718747379</v>
+        <v>73808.70231829025</v>
       </c>
       <c r="U2">
-        <v>1.104505494487967</v>
+        <v>1.104505494564364</v>
       </c>
       <c r="V2">
-        <v>31.64700722298585</v>
+        <v>31.64700722857378</v>
       </c>
       <c r="W2">
-        <v>19.9156043974217</v>
+        <v>19.91560439637396</v>
       </c>
       <c r="X2">
-        <v>5639.753650875289</v>
+        <v>5012.196216086314</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-6.61253300239332</v>
       </c>
       <c r="Z2">
-        <v>257464.3345413208</v>
+        <v>257464.3346881866</v>
       </c>
       <c r="AA2">
-        <v>14.72000368252692</v>
+        <v>529.6451050918549</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>301422.1279258728</v>
       </c>
       <c r="AC2">
-        <v>261576.3096542358</v>
+        <v>456298.5331878662</v>
       </c>
       <c r="AD2">
-        <v>213.994755346328</v>
+        <v>2244.555945187807</v>
       </c>
       <c r="AE2">
-        <v>5</v>
+        <v>69983.07879924774</v>
       </c>
       <c r="AF2">
-        <v>668.0198512385541</v>
+        <v>3101.302771847695</v>
       </c>
       <c r="AG2">
-        <v>109.072705867292</v>
+        <v>6204.934443295002</v>
       </c>
       <c r="AH2">
-        <v>11617.70568094015</v>
+        <v>79514.58702953592</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>3.07</v>
       </c>
       <c r="H3">
-        <v>44.74179566547537</v>
+        <v>44.74179566538805</v>
       </c>
       <c r="I3">
         <v>4.5</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-24.83274174574763</v>
       </c>
       <c r="K3">
         <v>20.0973044490408</v>
@@ -743,13 +743,13 @@
         <v>87.61</v>
       </c>
       <c r="R3">
-        <v>17.20828431518748</v>
+        <v>17.20828430284746</v>
       </c>
       <c r="S3">
         <v>20197.4</v>
       </c>
       <c r="T3">
-        <v>147222.1050179932</v>
+        <v>75250.40768068178</v>
       </c>
       <c r="U3">
         <v>1.3</v>
@@ -764,34 +764,34 @@
         <v>6173</v>
       </c>
       <c r="Y3">
-        <v>4.886760961264372</v>
+        <v>4.886760959867388</v>
       </c>
       <c r="Z3">
-        <v>342644.7695388794</v>
+        <v>342644.7696647644</v>
       </c>
       <c r="AA3">
-        <v>15.36234028399136</v>
+        <v>472.2569931745529</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>225976.3995780945</v>
       </c>
       <c r="AC3">
-        <v>218137.8274774551</v>
+        <v>370602.7041358948</v>
       </c>
       <c r="AD3">
-        <v>147.1940560266376</v>
+        <v>1596.828672289848</v>
       </c>
       <c r="AE3">
-        <v>5</v>
+        <v>61306.76915764809</v>
       </c>
       <c r="AF3">
-        <v>620.8145162328219</v>
+        <v>3013.752002511173</v>
       </c>
       <c r="AG3">
-        <v>358.3258604131636</v>
+        <v>5043.103323996067</v>
       </c>
       <c r="AH3">
-        <v>3221.56381578511</v>
+        <v>48269.82118963805</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>3.55</v>
       </c>
       <c r="H4">
-        <v>46.20666666652687</v>
+        <v>46.20666666645411</v>
       </c>
       <c r="I4">
         <v>4.6</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-12.66604886110872</v>
       </c>
       <c r="K4">
         <v>16.7704130454084</v>
@@ -847,7 +847,7 @@
         <v>91.11</v>
       </c>
       <c r="R4">
-        <v>13.43985294317827</v>
+        <v>13.43985293153673</v>
       </c>
       <c r="S4">
         <v>22472</v>
@@ -868,34 +868,34 @@
         <v>7216</v>
       </c>
       <c r="Y4">
-        <v>15.59812909783795</v>
+        <v>15.59812909737229</v>
       </c>
       <c r="Z4">
         <v>630917</v>
       </c>
       <c r="AA4">
-        <v>17.36060255526523</v>
+        <v>420.9802698735148</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>164703.3318252563</v>
       </c>
       <c r="AC4">
-        <v>178901.7368593216</v>
+        <v>298277.110206604</v>
       </c>
       <c r="AD4">
-        <v>91.05819188058376</v>
+        <v>1056.553946822882</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>53192.25378632545</v>
       </c>
       <c r="AF4">
-        <v>573.5856080275407</v>
+        <v>2917.400720901787</v>
       </c>
       <c r="AG4">
-        <v>242.1947202085262</v>
+        <v>4055.02670019865</v>
       </c>
       <c r="AH4">
-        <v>5597.8303621389</v>
+        <v>47064.1720185304</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.3</v>
       </c>
       <c r="J5">
-        <v>0.765402149874717</v>
+        <v>0.7654021461494267</v>
       </c>
       <c r="K5">
         <v>13.4616123307631</v>
@@ -972,34 +972,34 @@
         <v>5938</v>
       </c>
       <c r="Y5">
-        <v>25.52157141035423</v>
+        <v>25.52157141081989</v>
       </c>
       <c r="Z5">
         <v>383833</v>
       </c>
       <c r="AA5">
-        <v>19.40526677860503</v>
+        <v>375.8149351812899</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>117602.9246520996</v>
       </c>
       <c r="AC5">
-        <v>143868.0378017426</v>
+        <v>239321.7513885498</v>
       </c>
       <c r="AD5">
-        <v>45.58716290071607</v>
+        <v>623.7317688465118</v>
       </c>
       <c r="AE5">
-        <v>5</v>
+        <v>45639.53268527985</v>
       </c>
       <c r="AF5">
-        <v>526.3331266227178</v>
+        <v>2812.248927004635</v>
       </c>
       <c r="AG5">
-        <v>861.4347941283877</v>
+        <v>3240.704571962357</v>
       </c>
       <c r="AH5">
-        <v>4839.850879753883</v>
+        <v>43528.03569988425</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>9201</v>
       </c>
       <c r="Y6">
-        <v>34.65708789764903</v>
+        <v>34.65708789881319</v>
       </c>
       <c r="Z6">
         <v>256520</v>
       </c>
       <c r="AA6">
-        <v>30.59473825634094</v>
+        <v>336.7609891053289</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>84675.17808151245</v>
       </c>
       <c r="AC6">
-        <v>113036.7303028107</v>
+        <v>193736.6276931763</v>
       </c>
       <c r="AD6">
-        <v>10.78096907958388</v>
+        <v>298.3621383607388</v>
       </c>
       <c r="AE6">
-        <v>5</v>
+        <v>38648.60585427284</v>
       </c>
       <c r="AF6">
-        <v>479.0570720183605</v>
+        <v>2698.296620842069</v>
       </c>
       <c r="AG6">
-        <v>755.8212312624186</v>
+        <v>2600.136939287186</v>
       </c>
       <c r="AH6">
-        <v>1764.032387420092</v>
+        <v>49217.83004963604</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>590138</v>
       </c>
       <c r="AA7">
-        <v>26.51283737958633</v>
+        <v>303.8184316400439</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>65920.09210205078</v>
       </c>
       <c r="AC7">
-        <v>86407.81436347961</v>
+        <v>161521.7391090393</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>80.44505530595779</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>32219.47329330444</v>
       </c>
       <c r="AF7">
-        <v>431.7574442144614</v>
+        <v>2575.543802391738</v>
       </c>
       <c r="AG7">
-        <v>202.2079525552975</v>
+        <v>2133.323802113533</v>
       </c>
       <c r="AH7">
-        <v>2417.310718535667</v>
+        <v>80880.57393429585</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>718562</v>
       </c>
       <c r="AA8">
-        <v>24.82238037239118</v>
+        <v>276.9872627947479</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>61337.66670608521</v>
       </c>
       <c r="AC8">
-        <v>63981.28998374939</v>
+        <v>142677.0856513977</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>-30.01948028802872</v>
       </c>
       <c r="AE8">
-        <v>5</v>
+        <v>26352.13500261307</v>
       </c>
       <c r="AF8">
-        <v>384.4342432110134</v>
+        <v>2443.990471672267</v>
       </c>
       <c r="AG8">
-        <v>671.7203682573104</v>
+        <v>1840.265160501003</v>
       </c>
       <c r="AH8">
-        <v>2647.171256291001</v>
+        <v>41689.61009565665</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>865933</v>
       </c>
       <c r="AA9">
-        <v>16.40101381511207</v>
+        <v>256.2674825564027</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>70927.90191268921</v>
       </c>
       <c r="AC9">
-        <v>45757.15716266632</v>
+        <v>137202.6673088074</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>-33.03146839141846</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>21046.59098219872</v>
       </c>
       <c r="AF9">
-        <v>337.0874690080382</v>
+        <v>2303.636628676206</v>
       </c>
       <c r="AG9">
-        <v>548.4892314379277</v>
+        <v>1720.961014449596</v>
       </c>
       <c r="AH9">
-        <v>7749.457667206874</v>
+        <v>66049.64824160709</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>655180</v>
       </c>
       <c r="AA10">
-        <v>18.17202206021727</v>
+        <v>241.6590909343213</v>
       </c>
       <c r="AB10">
-        <v>1244.879548311234</v>
+        <v>94690.797706604</v>
       </c>
       <c r="AC10">
-        <v>31735.41590118408</v>
+        <v>145098.4840774536</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>71.40909096598625</v>
       </c>
       <c r="AE10">
-        <v>5</v>
+        <v>16302.84123182297</v>
       </c>
       <c r="AF10">
-        <v>289.717121605514</v>
+        <v>2154.482273396105</v>
       </c>
       <c r="AG10">
-        <v>330.5888877235366</v>
+        <v>1775.411363899708</v>
       </c>
       <c r="AH10">
-        <v>2014.096689139374</v>
+        <v>70434.61677489249</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>731837</v>
       </c>
       <c r="AA11">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="AB11">
-        <v>7415</v>
+        <v>136405</v>
       </c>
       <c r="AC11">
-        <v>7060</v>
+        <v>168100</v>
       </c>
       <c r="AD11">
-        <v>32</v>
+        <v>589</v>
       </c>
       <c r="AE11">
-        <v>5</v>
+        <v>20849</v>
       </c>
       <c r="AF11">
-        <v>242.323201003448</v>
+        <v>1936</v>
       </c>
       <c r="AG11">
-        <v>1019.651154440129</v>
+        <v>2036</v>
       </c>
       <c r="AH11">
-        <v>7339</v>
+        <v>46128</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>781617</v>
       </c>
       <c r="AA12">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="AB12">
-        <v>10760</v>
+        <v>160620</v>
       </c>
       <c r="AC12">
-        <v>7771</v>
+        <v>196783</v>
       </c>
       <c r="AD12">
-        <v>34</v>
+        <v>716</v>
       </c>
       <c r="AE12">
-        <v>5</v>
+        <v>1775</v>
       </c>
       <c r="AF12">
-        <v>194.9057072018404</v>
+        <v>1184</v>
       </c>
       <c r="AG12">
-        <v>3</v>
+        <v>1707</v>
       </c>
       <c r="AH12">
-        <v>1449</v>
+        <v>33678</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>805156</v>
       </c>
       <c r="AA13">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="AB13">
-        <v>15532</v>
+        <v>249531</v>
       </c>
       <c r="AC13">
-        <v>37388</v>
+        <v>246938</v>
       </c>
       <c r="AD13">
-        <v>51</v>
+        <v>950</v>
       </c>
       <c r="AE13">
-        <v>5</v>
+        <v>471</v>
       </c>
       <c r="AF13">
-        <v>147.4646402006983</v>
+        <v>1338</v>
       </c>
       <c r="AG13">
-        <v>804</v>
+        <v>5095</v>
       </c>
       <c r="AH13">
-        <v>9313.402072978399</v>
+        <v>55933</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>559247</v>
       </c>
       <c r="AA14">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="AB14">
-        <v>18470</v>
+        <v>321730</v>
       </c>
       <c r="AC14">
-        <v>17414</v>
+        <v>308587</v>
       </c>
       <c r="AD14">
-        <v>42</v>
+        <v>1306</v>
       </c>
       <c r="AE14">
-        <v>5</v>
+        <v>1434</v>
       </c>
       <c r="AF14">
-        <v>100</v>
+        <v>3417</v>
       </c>
       <c r="AG14">
-        <v>64</v>
+        <v>4612</v>
       </c>
       <c r="AH14">
-        <v>23424</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>704054</v>
       </c>
       <c r="AA15">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="AB15">
-        <v>60445</v>
+        <v>439103</v>
       </c>
       <c r="AC15">
-        <v>28593</v>
+        <v>405451</v>
       </c>
       <c r="AD15">
-        <v>121</v>
+        <v>1663</v>
       </c>
       <c r="AE15">
-        <v>5</v>
+        <v>549</v>
       </c>
       <c r="AF15">
-        <v>52.5117865997745</v>
+        <v>1239</v>
       </c>
       <c r="AG15">
-        <v>10</v>
+        <v>2288</v>
       </c>
       <c r="AH15">
-        <v>18223</v>
+        <v>80192</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>618484</v>
       </c>
       <c r="AA16">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="AB16">
-        <v>90426</v>
+        <v>575937</v>
       </c>
       <c r="AC16">
-        <v>56438</v>
+        <v>444462</v>
       </c>
       <c r="AD16">
-        <v>147</v>
+        <v>2868</v>
       </c>
       <c r="AE16">
-        <v>5</v>
+        <v>508</v>
       </c>
       <c r="AF16">
-        <v>5</v>
+        <v>681</v>
       </c>
       <c r="AG16">
-        <v>1722</v>
+        <v>1886</v>
       </c>
       <c r="AH16">
-        <v>5235</v>
+        <v>64008</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>301.6273</v>
       </c>
       <c r="K17">
-        <v>8.585926804458722</v>
+        <v>8.585926801897585</v>
       </c>
       <c r="L17">
-        <v>1.791740629858396</v>
+        <v>1.791740629982087</v>
       </c>
       <c r="M17">
         <v>23.4912442121468</v>
@@ -2226,28 +2226,28 @@
         <v>680453</v>
       </c>
       <c r="AA17">
-        <v>18</v>
+        <v>355</v>
       </c>
       <c r="AB17">
-        <v>84925.89999999999</v>
+        <v>758372.6</v>
       </c>
       <c r="AC17">
-        <v>60384.2</v>
+        <v>610099.7</v>
       </c>
       <c r="AD17">
-        <v>693</v>
+        <v>3397</v>
       </c>
       <c r="AE17">
-        <v>5</v>
+        <v>1348</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="AG17">
-        <v>882.0198603171514</v>
+        <v>10404</v>
       </c>
       <c r="AH17">
-        <v>3877</v>
+        <v>52248</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>325.9</v>
       </c>
       <c r="K18">
-        <v>10.18692612706218</v>
+        <v>10.18692612450104</v>
       </c>
       <c r="L18">
-        <v>1.784239343494846</v>
+        <v>1.784239343633089</v>
       </c>
       <c r="M18">
         <v>21.0144818563243</v>
@@ -2312,13 +2312,13 @@
         <v>225281</v>
       </c>
       <c r="U18">
-        <v>2.96393406594143</v>
+        <v>2.963934065839567</v>
       </c>
       <c r="V18">
         <v>97.40000000000001</v>
       </c>
       <c r="W18">
-        <v>104.7230329639278</v>
+        <v>104.723032963695</v>
       </c>
       <c r="X18">
         <v>401</v>
@@ -2330,28 +2330,28 @@
         <v>599979</v>
       </c>
       <c r="AA18">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="AB18">
-        <v>97984.7</v>
+        <v>728272.7</v>
       </c>
       <c r="AC18">
-        <v>84617</v>
+        <v>679531.9</v>
       </c>
       <c r="AD18">
-        <v>390</v>
+        <v>5160</v>
       </c>
       <c r="AE18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>112.8</v>
       </c>
       <c r="AG18">
-        <v>20</v>
+        <v>8510.4</v>
       </c>
       <c r="AH18">
-        <v>4400.1</v>
+        <v>50506.3</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>49.9</v>
       </c>
       <c r="E19">
-        <v>25314.30000074208</v>
+        <v>25314.30000079237</v>
       </c>
       <c r="F19">
         <v>25382.544</v>
@@ -2386,10 +2386,10 @@
         <v>310.1</v>
       </c>
       <c r="K19">
-        <v>12.10225000383798</v>
+        <v>12.10225000104401</v>
       </c>
       <c r="L19">
-        <v>1.786730985793838</v>
+        <v>1.786730985957547</v>
       </c>
       <c r="M19">
         <v>20.4733993201464</v>
@@ -2416,13 +2416,13 @@
         <v>40773</v>
       </c>
       <c r="U19">
-        <v>3.002730769239861</v>
+        <v>3.002730769119808</v>
       </c>
       <c r="V19">
         <v>97.40000000000001</v>
       </c>
       <c r="W19">
-        <v>106.1752417546231</v>
+        <v>106.1752417543903</v>
       </c>
       <c r="X19">
         <v>7373</v>
@@ -2434,28 +2434,28 @@
         <v>720285</v>
       </c>
       <c r="AA19">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="AB19">
-        <v>46942.9</v>
+        <v>858613.1</v>
       </c>
       <c r="AC19">
-        <v>53009.8</v>
+        <v>790643.6</v>
       </c>
       <c r="AD19">
-        <v>394</v>
+        <v>6469</v>
       </c>
       <c r="AE19">
-        <v>5</v>
+        <v>1141.7</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>132.8</v>
       </c>
       <c r="AG19">
-        <v>550.5957247690051</v>
+        <v>11078.2</v>
       </c>
       <c r="AH19">
-        <v>2265.2</v>
+        <v>58323.5</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>48.2</v>
       </c>
       <c r="E20">
-        <v>26818.46764803864</v>
+        <v>26818.46764812805</v>
       </c>
       <c r="F20">
         <v>23887.6907</v>
@@ -2490,10 +2490,10 @@
         <v>342.5618</v>
       </c>
       <c r="K20">
-        <v>14.33189843478613</v>
+        <v>14.33189843175933</v>
       </c>
       <c r="L20">
-        <v>1.799215556769923</v>
+        <v>1.799215556951822</v>
       </c>
       <c r="M20">
         <v>15.7804631614844</v>
@@ -2520,13 +2520,13 @@
         <v>51778</v>
       </c>
       <c r="U20">
-        <v>3.03241952166718</v>
+        <v>3.032419521528936</v>
       </c>
       <c r="V20">
         <v>97.8</v>
       </c>
       <c r="W20">
-        <v>107.1747146048583</v>
+        <v>107.1747146041598</v>
       </c>
       <c r="X20">
         <v>750</v>
@@ -2538,28 +2538,28 @@
         <v>649981</v>
       </c>
       <c r="AA20">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AB20">
-        <v>74988</v>
+        <v>1084962</v>
       </c>
       <c r="AC20">
-        <v>80283</v>
+        <v>971927</v>
       </c>
       <c r="AD20">
-        <v>671</v>
+        <v>7842</v>
       </c>
       <c r="AE20">
-        <v>5</v>
+        <v>-235.9714136123657</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>178.910545416176</v>
       </c>
       <c r="AG20">
-        <v>33</v>
+        <v>11353</v>
       </c>
       <c r="AH20">
-        <v>2426</v>
+        <v>44766</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>42.2</v>
       </c>
       <c r="E21">
-        <v>28329.99804045632</v>
+        <v>28329.99804058857</v>
       </c>
       <c r="F21">
         <v>27194.2</v>
@@ -2594,25 +2594,25 @@
         <v>369.2922</v>
       </c>
       <c r="K21">
-        <v>16.87587142037228</v>
+        <v>16.8758714167634</v>
       </c>
       <c r="L21">
-        <v>1.821693056412187</v>
+        <v>1.821693056608638</v>
       </c>
       <c r="M21">
         <v>10.9572422065391</v>
       </c>
       <c r="N21">
-        <v>119.9002450951375</v>
+        <v>119.9002450914122</v>
       </c>
       <c r="O21">
-        <v>113.0512009873055</v>
+        <v>113.0512009821832</v>
       </c>
       <c r="P21">
         <v>2699.3</v>
       </c>
       <c r="Q21">
-        <v>97.47247548925225</v>
+        <v>97.47247549056192</v>
       </c>
       <c r="R21">
         <v>40.5</v>
@@ -2621,49 +2621,49 @@
         <v>1107399</v>
       </c>
       <c r="T21">
-        <v>128774.0048003728</v>
+        <v>75210.2962640904</v>
       </c>
       <c r="U21">
-        <v>3.053000323216111</v>
+        <v>3.053000323063316</v>
       </c>
       <c r="V21">
         <v>97.90000000000001</v>
       </c>
       <c r="W21">
-        <v>107.721451514517</v>
+        <v>107.7214515134692</v>
       </c>
       <c r="X21">
-        <v>7960.400089208114</v>
+        <v>5949.540252024569</v>
       </c>
       <c r="Y21">
-        <v>77.13873626221903</v>
+        <v>77.13873625476845</v>
       </c>
       <c r="Z21">
         <v>272951</v>
       </c>
       <c r="AA21">
-        <v>26</v>
+        <v>477</v>
       </c>
       <c r="AB21">
-        <v>125807</v>
+        <v>1326280</v>
       </c>
       <c r="AC21">
-        <v>160976</v>
+        <v>1120901</v>
       </c>
       <c r="AD21">
-        <v>718</v>
+        <v>7941</v>
       </c>
       <c r="AE21">
-        <v>5</v>
+        <v>2207</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>-67.04944491013885</v>
       </c>
       <c r="AG21">
-        <v>1244</v>
+        <v>15127</v>
       </c>
       <c r="AH21">
-        <v>2975</v>
+        <v>66631</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>29848.89117799886</v>
+        <v>29848.89117817953</v>
       </c>
       <c r="F22">
         <v>26666.8076</v>
@@ -2692,82 +2692,82 @@
         <v>68.59999999999999</v>
       </c>
       <c r="I22">
-        <v>3.869308565554093</v>
+        <v>3.869308565503161</v>
       </c>
       <c r="J22">
-        <v>422.6080621415749</v>
+        <v>422.6080621434376</v>
       </c>
       <c r="K22">
-        <v>19.73416895978153</v>
+        <v>19.73416895605624</v>
       </c>
       <c r="L22">
-        <v>1.854163484716992</v>
+        <v>1.854163484942546</v>
       </c>
       <c r="M22">
-        <v>58.99554348923266</v>
+        <v>58.99554348737001</v>
       </c>
       <c r="N22">
-        <v>125.8140479840804</v>
+        <v>125.8140479801223</v>
       </c>
       <c r="O22">
-        <v>132.5622303998098</v>
+        <v>132.5622303923592</v>
       </c>
       <c r="P22">
-        <v>2845.975076377126</v>
+        <v>2136.810480923871</v>
       </c>
       <c r="Q22">
-        <v>97.1511209999444</v>
+        <v>97.15112100142869</v>
       </c>
       <c r="R22">
-        <v>47.53794116317295</v>
+        <v>47.5379411817994</v>
       </c>
       <c r="S22">
         <v>910046</v>
       </c>
       <c r="T22">
-        <v>124877.6601758077</v>
+        <v>140474.3319955045</v>
       </c>
       <c r="U22">
-        <v>3.06447317389393</v>
+        <v>3.064473173722945</v>
       </c>
       <c r="V22">
-        <v>97.37086687842384</v>
+        <v>97.37086687213741</v>
       </c>
       <c r="W22">
-        <v>107.8154524837155</v>
+        <v>107.8154524822021</v>
       </c>
       <c r="X22">
-        <v>7839.594758971827</v>
+        <v>8555.012153397793</v>
       </c>
       <c r="Y22">
-        <v>73.66743955691345</v>
+        <v>73.66743954760022</v>
       </c>
       <c r="Z22">
-        <v>376350.8284225464</v>
+        <v>376350.8283672333</v>
       </c>
       <c r="AA22">
-        <v>49</v>
+        <v>620</v>
       </c>
       <c r="AB22">
-        <v>181319.4</v>
+        <v>1508817.5</v>
       </c>
       <c r="AC22">
-        <v>222865.7</v>
+        <v>1280396.9</v>
       </c>
       <c r="AD22">
-        <v>940</v>
+        <v>9215</v>
       </c>
       <c r="AE22">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AG22">
-        <v>857.1</v>
+        <v>14702.1</v>
       </c>
       <c r="AH22">
-        <v>7787.3</v>
+        <v>108446.8</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>41.4</v>
       </c>
       <c r="E23">
-        <v>31375.14706066251</v>
+        <v>31375.1470608972</v>
       </c>
       <c r="F23">
-        <v>28509.28823894262</v>
+        <v>28509.28823903203</v>
       </c>
       <c r="G23">
         <v>-3.42</v>
       </c>
       <c r="H23">
-        <v>69.18039215697354</v>
+        <v>69.18039215703902</v>
       </c>
       <c r="I23">
-        <v>3.944697626429843</v>
+        <v>3.944697626382549</v>
       </c>
       <c r="J23">
-        <v>458.8051593690179</v>
+        <v>458.8051593713462</v>
       </c>
       <c r="K23">
-        <v>22.90679105359595</v>
+        <v>22.90679104952142</v>
       </c>
       <c r="L23">
-        <v>1.89662684169889</v>
+        <v>1.896626841935358</v>
       </c>
       <c r="M23">
         <v>81.03367369249463</v>
       </c>
       <c r="N23">
-        <v>132.340531471651</v>
+        <v>132.3405314674601</v>
       </c>
       <c r="O23">
-        <v>153.5851057861</v>
+        <v>153.5851057781838</v>
       </c>
       <c r="P23">
-        <v>2861.929908713186</v>
+        <v>2702.294293439129</v>
       </c>
       <c r="Q23">
-        <v>96.74777863663621</v>
+        <v>96.74777863820782</v>
       </c>
       <c r="R23">
-        <v>55.09504900383763</v>
+        <v>55.09504902572371</v>
       </c>
       <c r="S23">
-        <v>1108062.113510132</v>
+        <v>1108062.113518715</v>
       </c>
       <c r="T23">
-        <v>90664.52978207733</v>
+        <v>138370.4207500049</v>
       </c>
       <c r="U23">
-        <v>3.066838073696999</v>
+        <v>3.066838073507824</v>
       </c>
       <c r="V23">
-        <v>96.41537255514413</v>
+        <v>96.41537254815921</v>
       </c>
       <c r="W23">
-        <v>107.4567175122211</v>
+        <v>107.4567175104748</v>
       </c>
       <c r="X23">
-        <v>8671.151239509834</v>
+        <v>8604.071303260294</v>
       </c>
       <c r="Y23">
-        <v>69.40821702638641</v>
+        <v>69.40821701544337</v>
       </c>
       <c r="Z23">
-        <v>294718.3996181488</v>
+        <v>294718.3995704651</v>
       </c>
       <c r="AA23">
-        <v>20.45327323686602</v>
+        <v>607.8863636795431</v>
       </c>
       <c r="AB23">
-        <v>165519.7386381626</v>
+        <v>1693320.556919098</v>
       </c>
       <c r="AC23">
-        <v>231870.4113988876</v>
+        <v>1464435.497825623</v>
       </c>
       <c r="AD23">
-        <v>1050.79545456171</v>
+        <v>11207.31818217039</v>
       </c>
       <c r="AE23">
-        <v>5</v>
+        <v>5757.373061180115</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-585.3709623888135</v>
       </c>
       <c r="AG23">
-        <v>663.4245166702058</v>
+        <v>18294.92500078678</v>
       </c>
       <c r="AH23">
-        <v>8511.475918659249</v>
+        <v>55951.54319034064</v>
       </c>
     </row>
   </sheetData>
